--- a/xlsx/政策_政策_管理_intext.xlsx
+++ b/xlsx/政策_政策_管理_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="484">
   <si>
     <t>管理</t>
   </si>
@@ -1467,480 +1467,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://ar.wikipedia.org/wiki/%D8%A5%D8%AF%D8%A7%D8%B1%D8%A9</t>
-  </si>
-  <si>
-    <t>إدارة – 阿拉伯语</t>
-  </si>
-  <si>
-    <t>https://as.wikipedia.org/wiki/%E0%A6%AC%E0%A7%8D%E0%A6%AF%E0%A7%B1%E0%A6%B8%E0%A7%8D%E0%A6%A5%E0%A6%BE%E0%A6%AA%E0%A6%A8%E0%A6%BE</t>
-  </si>
-  <si>
-    <t>ব্যৱস্থাপনা – 阿萨姆语</t>
-  </si>
-  <si>
-    <t>https://ast.wikipedia.org/wiki/Alministraci%C3%B3n</t>
-  </si>
-  <si>
-    <t>Alministración – 阿斯图里亚斯语</t>
-  </si>
-  <si>
-    <t>https://az.wikipedia.org/wiki/Menecment</t>
-  </si>
-  <si>
-    <t>Menecment – 阿塞拜疆语</t>
-  </si>
-  <si>
-    <t>https://bat-smg.wikipedia.org/wiki/Vad%C4%ABba</t>
-  </si>
-  <si>
-    <t>Vadība – Samogitian</t>
-  </si>
-  <si>
-    <t>https://be.wikipedia.org/wiki/%D0%9C%D0%B5%D0%BD%D0%B5%D0%B4%D0%B6%D0%BC%D0%B5%D0%BD%D1%82</t>
-  </si>
-  <si>
-    <t>Менеджмент – 白俄罗斯语</t>
-  </si>
-  <si>
-    <t>https://be-x-old.wikipedia.org/wiki/%D0%9C%D1%8D%D0%BD%D1%8D%D0%B4%D0%B6%D0%BC%D1%8D%D0%BD%D1%82</t>
-  </si>
-  <si>
-    <t>Мэнэджмэнт – Belarusian (Taraškievica orthography)</t>
-  </si>
-  <si>
-    <t>https://bg.wikipedia.org/wiki/%D0%9C%D0%B5%D0%BD%D0%B8%D0%B4%D0%B6%D0%BC%D1%8A%D0%BD%D1%82</t>
-  </si>
-  <si>
-    <t>Мениджмънт – 保加利亚语</t>
-  </si>
-  <si>
-    <t>https://bn.wikipedia.org/wiki/%E0%A6%AC%E0%A7%8D%E0%A6%AF%E0%A6%AC%E0%A6%B8%E0%A7%8D%E0%A6%A5%E0%A6%BE%E0%A6%AA%E0%A6%A8%E0%A6%BE</t>
-  </si>
-  <si>
-    <t>ব্যবস্থাপনা – 孟加拉语</t>
-  </si>
-  <si>
-    <t>https://br.wikipedia.org/wiki/Management</t>
-  </si>
-  <si>
-    <t>Management – 布列塔尼语</t>
-  </si>
-  <si>
-    <t>https://bs.wikipedia.org/wiki/Menad%C5%BEment</t>
-  </si>
-  <si>
-    <t>Menadžment – 波斯尼亚语</t>
-  </si>
-  <si>
-    <t>https://ca.wikipedia.org/wiki/Gesti%C3%B3</t>
-  </si>
-  <si>
-    <t>Gestió – 加泰罗尼亚语</t>
-  </si>
-  <si>
-    <t>https://ckb.wikipedia.org/wiki/%D8%A8%DB%95%DA%95%DB%8E%D9%88%DB%95%D8%A8%DB%95%D8%B1%D8%A7%DB%8C%DB%95%D8%AA%DB%8C</t>
-  </si>
-  <si>
-    <t>بەڕێوەبەرایەتی – 中库尔德语</t>
-  </si>
-  <si>
-    <t>https://cs.wikipedia.org/wiki/Management</t>
-  </si>
-  <si>
-    <t>Management – 捷克语</t>
-  </si>
-  <si>
-    <t>https://cy.wikipedia.org/wiki/Rheolaeth</t>
-  </si>
-  <si>
-    <t>Rheolaeth – 威尔士语</t>
-  </si>
-  <si>
-    <t>https://da.wikipedia.org/wiki/Ledelse</t>
-  </si>
-  <si>
-    <t>Ledelse – 丹麦语</t>
-  </si>
-  <si>
-    <t>https://de.wikipedia.org/wiki/Management</t>
-  </si>
-  <si>
-    <t>Management – 德语</t>
-  </si>
-  <si>
-    <t>https://el.wikipedia.org/wiki/%CE%94%CE%B9%CE%B1%CF%87%CE%B5%CE%AF%CF%81%CE%B9%CF%83%CE%B7</t>
-  </si>
-  <si>
-    <t>Διαχείριση – 希腊语</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Management</t>
-  </si>
-  <si>
-    <t>Management – 英语</t>
-  </si>
-  <si>
-    <t>https://eo.wikipedia.org/wiki/Administradoscienco</t>
-  </si>
-  <si>
-    <t>Administradoscienco – 世界语</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Administraci%C3%B3n</t>
-  </si>
-  <si>
-    <t>Administración – 西班牙语</t>
-  </si>
-  <si>
-    <t>https://et.wikipedia.org/wiki/Juhtimine</t>
-  </si>
-  <si>
-    <t>Juhtimine – 爱沙尼亚语</t>
-  </si>
-  <si>
-    <t>https://eu.wikipedia.org/wiki/Kudeaketa</t>
-  </si>
-  <si>
-    <t>Kudeaketa – 巴斯克语</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D9%85%D8%AF%DB%8C%D8%B1%DB%8C%D8%AA</t>
-  </si>
-  <si>
-    <t>مدیریت – 波斯语</t>
-  </si>
-  <si>
-    <t>https://fi.wikipedia.org/wiki/Yritysjohtaminen</t>
-  </si>
-  <si>
-    <t>Yritysjohtaminen – 芬兰语</t>
-  </si>
-  <si>
-    <t>https://fr.wikipedia.org/wiki/Management</t>
-  </si>
-  <si>
-    <t>Management – 法语</t>
-  </si>
-  <si>
-    <t>https://he.wikipedia.org/wiki/%D7%A0%D7%99%D7%94%D7%95%D7%9C</t>
-  </si>
-  <si>
-    <t>ניהול – 希伯来语</t>
-  </si>
-  <si>
-    <t>https://hi.wikipedia.org/wiki/%E0%A4%AA%E0%A5%8D%E0%A4%B0%E0%A4%AC%E0%A4%A8%E0%A5%8D%E0%A4%A7%E0%A4%A8</t>
-  </si>
-  <si>
-    <t>प्रबन्धन – 印地语</t>
-  </si>
-  <si>
-    <t>https://hr.wikipedia.org/wiki/Menad%C5%BEment</t>
-  </si>
-  <si>
-    <t>Menadžment – 克罗地亚语</t>
-  </si>
-  <si>
-    <t>https://hu.wikipedia.org/wiki/Menedzsment</t>
-  </si>
-  <si>
-    <t>Menedzsment – 匈牙利语</t>
-  </si>
-  <si>
-    <t>https://hy.wikipedia.org/wiki/%D4%BF%D5%A1%D5%BC%D5%A1%D5%BE%D5%A1%D6%80%D5%B8%D6%82%D5%B4_(%D5%BF%D5%B6%D5%BF%D5%A5%D5%BD%D5%A1%D5%A3%D5%AB%D5%BF%D5%B8%D6%82%D5%A9%D5%B5%D5%B8%D6%82%D5%B6)</t>
-  </si>
-  <si>
-    <t>Կառավարում (տնտեսագիտություն) – 亚美尼亚语</t>
-  </si>
-  <si>
-    <t>https://id.wikipedia.org/wiki/Manajemen</t>
-  </si>
-  <si>
-    <t>Manajemen – 印度尼西亚语</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E7%B5%8C%E5%96%B6%E7%AE%A1%E7%90%86%E8%AB%96</t>
-  </si>
-  <si>
-    <t>経営管理論 – 日语</t>
-  </si>
-  <si>
-    <t>https://ka.wikipedia.org/wiki/%E1%83%9B%E1%83%94%E1%83%9C%E1%83%94%E1%83%AF%E1%83%9B%E1%83%94%E1%83%9C%E1%83%A2%E1%83%98</t>
-  </si>
-  <si>
-    <t>მენეჯმენტი – 格鲁吉亚语</t>
-  </si>
-  <si>
-    <t>https://kk.wikipedia.org/wiki/%D0%9C%D0%B5%D0%BD%D0%B5%D0%B4%D0%B6%D0%BC%D0%B5%D0%BD%D1%82</t>
-  </si>
-  <si>
-    <t>Менеджмент – 哈萨克语</t>
-  </si>
-  <si>
-    <t>https://kn.wikipedia.org/wiki/%E0%B2%B5%E0%B3%8D%E0%B2%AF%E0%B2%B5%E0%B2%B9%E0%B2%BE%E0%B2%B0_%E0%B2%A8%E0%B2%BF%E0%B2%B5%E0%B3%AF%E0%B2%B9%E0%B2%A3%E0%B3%86</t>
-  </si>
-  <si>
-    <t>ವ್ಯವಹಾರ ನಿವ೯ಹಣೆ – 卡纳达语</t>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EA%B2%BD%EC%98%81</t>
-  </si>
-  <si>
-    <t>경영 – 韩语</t>
-  </si>
-  <si>
-    <t>https://ky.wikipedia.org/wiki/%D0%9C%D0%B5%D0%BD%D0%B5%D0%B4%D0%B6%D0%BC%D0%B5%D0%BD%D1%82</t>
-  </si>
-  <si>
-    <t>Менеджмент – 柯尔克孜语</t>
-  </si>
-  <si>
-    <t>https://li.wikipedia.org/wiki/Bedriefsveuring</t>
-  </si>
-  <si>
-    <t>Bedriefsveuring – 林堡语</t>
-  </si>
-  <si>
-    <t>https://lo.wikipedia.org/wiki/%E0%BA%81%E0%BA%B2%E0%BA%99%E0%BA%88%E0%BA%B1%E0%BA%94%E0%BA%81%E0%BA%B2%E0%BA%99</t>
-  </si>
-  <si>
-    <t>ການຈັດການ – 老挝语</t>
-  </si>
-  <si>
-    <t>https://lt.wikipedia.org/wiki/Vadyba</t>
-  </si>
-  <si>
-    <t>Vadyba – 立陶宛语</t>
-  </si>
-  <si>
-    <t>https://lv.wikipedia.org/wiki/Vad%C4%ABbzin%C4%ABba</t>
-  </si>
-  <si>
-    <t>Vadībzinība – 拉脱维亚语</t>
-  </si>
-  <si>
-    <t>https://mk.wikipedia.org/wiki/%D0%9C%D0%B5%D0%BD%D0%B0%D1%9F%D0%BC%D0%B5%D0%BD%D1%82</t>
-  </si>
-  <si>
-    <t>Менаџмент – 马其顿语</t>
-  </si>
-  <si>
-    <t>https://ml.wikipedia.org/wiki/%E0%B4%AE%E0%B4%BE%E0%B4%A8%E0%B5%87%E0%B4%9C%E0%B5%8D%E0%B4%AE%E0%B5%86%E0%B4%A8%E0%B5%8D%E0%B4%B1%E0%B5%8D</t>
-  </si>
-  <si>
-    <t>മാനേജ്മെന്റ് – 马拉雅拉姆语</t>
-  </si>
-  <si>
-    <t>https://mn.wikipedia.org/wiki/%D0%9C%D0%B5%D0%BD%D0%B5%D0%B6%D0%BC%D0%B5%D0%BD%D1%82</t>
-  </si>
-  <si>
-    <t>Менежмент – 蒙古语</t>
-  </si>
-  <si>
-    <t>https://ms.wikipedia.org/wiki/Pengurusan</t>
-  </si>
-  <si>
-    <t>Pengurusan – 马来语</t>
-  </si>
-  <si>
-    <t>https://mwl.wikipedia.org/wiki/Admenistra%C3%A7on</t>
-  </si>
-  <si>
-    <t>Admenistraçon – 米兰德斯语</t>
-  </si>
-  <si>
-    <t>https://my.wikipedia.org/wiki/%E1%80%85%E1%80%AE%E1%80%99%E1%80%B6%E1%80%81%E1%80%94%E1%80%B7%E1%80%BA%E1%80%81%E1%80%BD%E1%80%B2%E1%80%81%E1%80%BC%E1%80%84%E1%80%BA%E1%80%B8</t>
-  </si>
-  <si>
-    <t>စီမံခန့်ခွဲခြင်း – 缅甸语</t>
-  </si>
-  <si>
-    <t>https://ne.wikipedia.org/wiki/%E0%A4%B5%E0%A5%8D%E0%A4%AF%E0%A4%B5%E0%A4%B8%E0%A5%8D%E0%A4%A5%E0%A4%BE%E0%A4%AA%E0%A4%A8</t>
-  </si>
-  <si>
-    <t>व्यवस्थापन – 尼泊尔语</t>
-  </si>
-  <si>
-    <t>https://nl.wikipedia.org/wiki/Management</t>
-  </si>
-  <si>
-    <t>Management – 荷兰语</t>
-  </si>
-  <si>
-    <t>https://no.wikipedia.org/wiki/Ledelse</t>
-  </si>
-  <si>
-    <t>Ledelse – 挪威语</t>
-  </si>
-  <si>
-    <t>https://pih.wikipedia.org/wiki/Manajement</t>
-  </si>
-  <si>
-    <t>Manajement – Norfuk / Pitkern</t>
-  </si>
-  <si>
-    <t>https://pl.wikipedia.org/wiki/Zarz%C4%85dzanie</t>
-  </si>
-  <si>
-    <t>Zarządzanie – 波兰语</t>
-  </si>
-  <si>
-    <t>https://ps.wikipedia.org/wiki/%D8%B3%D9%85%D8%A8%D8%A7%D9%84%DA%9A%D8%AA</t>
-  </si>
-  <si>
-    <t>سمبالښت – 普什图语</t>
-  </si>
-  <si>
-    <t>https://pt.wikipedia.org/wiki/Administra%C3%A7%C3%A3o</t>
-  </si>
-  <si>
-    <t>Administração – 葡萄牙语</t>
-  </si>
-  <si>
-    <t>https://ro.wikipedia.org/wiki/Management</t>
-  </si>
-  <si>
-    <t>Management – 罗马尼亚语</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/%D0%9C%D0%B5%D0%BD%D0%B5%D0%B4%D0%B6%D0%BC%D0%B5%D0%BD%D1%82</t>
-  </si>
-  <si>
-    <t>Менеджмент – 俄语</t>
-  </si>
-  <si>
-    <t>https://scn.wikipedia.org/wiki/Amministraturi</t>
-  </si>
-  <si>
-    <t>Amministraturi – 西西里语</t>
-  </si>
-  <si>
-    <t>https://sco.wikipedia.org/wiki/Management</t>
-  </si>
-  <si>
-    <t>Management – 苏格兰语</t>
-  </si>
-  <si>
-    <t>https://sh.wikipedia.org/wiki/Menad%C5%BEment</t>
-  </si>
-  <si>
-    <t>Menadžment – 塞尔维亚-克罗地亚语</t>
-  </si>
-  <si>
-    <t>https://si.wikipedia.org/wiki/%E0%B6%9A%E0%B7%85%E0%B6%B8%E0%B6%B1%E0%B7%8F%E0%B6%9A%E0%B6%BB%E0%B6%AB%E0%B6%BA</t>
-  </si>
-  <si>
-    <t>කළමනාකරණය – 僧伽罗语</t>
-  </si>
-  <si>
-    <t>https://simple.wikipedia.org/wiki/Management</t>
-  </si>
-  <si>
-    <t>Management – Simple English</t>
-  </si>
-  <si>
-    <t>https://sk.wikipedia.org/wiki/Pl%C3%A1novanie</t>
-  </si>
-  <si>
-    <t>Plánovanie – 斯洛伐克语</t>
-  </si>
-  <si>
-    <t>https://sl.wikipedia.org/wiki/Mened%C5%BEment</t>
-  </si>
-  <si>
-    <t>Menedžment – 斯洛文尼亚语</t>
-  </si>
-  <si>
-    <t>https://sq.wikipedia.org/wiki/Menaxhimi</t>
-  </si>
-  <si>
-    <t>Menaxhimi – 阿尔巴尼亚语</t>
-  </si>
-  <si>
-    <t>https://sr.wikipedia.org/wiki/%D0%A0%D1%83%D0%BA%D0%BE%D0%B2%D0%BE%D1%92%D0%B5%D1%9A%D0%B5</t>
-  </si>
-  <si>
-    <t>Руковођење – 塞尔维亚语</t>
-  </si>
-  <si>
-    <t>https://sv.wikipedia.org/wiki/Management</t>
-  </si>
-  <si>
-    <t>Management – 瑞典语</t>
-  </si>
-  <si>
-    <t>https://sw.wikipedia.org/wiki/Usimamizi</t>
-  </si>
-  <si>
-    <t>Usimamizi – 斯瓦希里语</t>
-  </si>
-  <si>
-    <t>https://ta.wikipedia.org/wiki/%E0%AE%AE%E0%AF%87%E0%AE%B2%E0%AE%BE%E0%AE%A3%E0%AF%8D%E0%AE%AE%E0%AF%88</t>
-  </si>
-  <si>
-    <t>மேலாண்மை – 泰米尔语</t>
-  </si>
-  <si>
-    <t>https://tg.wikipedia.org/wiki/%D0%9C%D1%83%D0%B4%D0%B8%D1%80%D0%B8%D1%8F%D1%82</t>
-  </si>
-  <si>
-    <t>Мудирият – 塔吉克语</t>
-  </si>
-  <si>
-    <t>https://th.wikipedia.org/wiki/%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%B2%E0%B8%A3</t>
-  </si>
-  <si>
-    <t>การจัดการ – 泰语</t>
-  </si>
-  <si>
-    <t>https://tl.wikipedia.org/wiki/Pamamahala</t>
-  </si>
-  <si>
-    <t>Pamamahala – 他加禄语</t>
-  </si>
-  <si>
-    <t>https://tr.wikipedia.org/wiki/%C4%B0%C5%9Fletme</t>
-  </si>
-  <si>
-    <t>İşletme – 土耳其语</t>
-  </si>
-  <si>
-    <t>https://uk.wikipedia.org/wiki/%D0%9C%D0%B5%D0%BD%D0%B5%D0%B4%D0%B6%D0%BC%D0%B5%D0%BD%D1%82</t>
-  </si>
-  <si>
-    <t>Менеджмент – 乌克兰语</t>
-  </si>
-  <si>
-    <t>https://ur.wikipedia.org/wiki/%D9%86%D8%B8%D8%A7%D9%85%D8%AA</t>
-  </si>
-  <si>
-    <t>نظامت – 乌尔都语</t>
-  </si>
-  <si>
-    <t>https://uz.wikipedia.org/wiki/Menejment</t>
-  </si>
-  <si>
-    <t>Menejment – 乌兹别克语</t>
-  </si>
-  <si>
-    <t>https://vi.wikipedia.org/wiki/Qu%E1%BA%A3n_l%C3%BD</t>
-  </si>
-  <si>
-    <t>Quản lý – 越南语</t>
-  </si>
-  <si>
-    <t>https://yi.wikipedia.org/wiki/%D7%A4%D7%99%D7%A8%D7%A2%D7%A8%D7%A9%D7%90%D7%A4%D7%98</t>
-  </si>
-  <si>
-    <t>פירערשאפט – 意第绪语</t>
-  </si>
-  <si>
-    <t>https://zh-min-nan.wikipedia.org/wiki/Ko%C3%A1n-l%C3%AD-ha%CC%8Dk</t>
-  </si>
-  <si>
-    <t>Koán-lí-ha̍k – Chinese (Min Nan)</t>
   </si>
 </sst>
 </file>
@@ -2289,7 +1815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I335"/>
+  <dimension ref="A1:I256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9718,2297 +9244,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="s">
-        <v>0</v>
-      </c>
-      <c r="C257" t="s">
-        <v>1</v>
-      </c>
-      <c r="D257" t="n">
-        <v>256</v>
-      </c>
-      <c r="E257" t="s">
-        <v>484</v>
-      </c>
-      <c r="F257" t="s">
-        <v>485</v>
-      </c>
-      <c r="G257" t="n">
-        <v>1</v>
-      </c>
-      <c r="H257" t="s">
-        <v>4</v>
-      </c>
-      <c r="I257" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="s">
-        <v>0</v>
-      </c>
-      <c r="C258" t="s">
-        <v>1</v>
-      </c>
-      <c r="D258" t="n">
-        <v>257</v>
-      </c>
-      <c r="E258" t="s">
-        <v>486</v>
-      </c>
-      <c r="F258" t="s">
-        <v>487</v>
-      </c>
-      <c r="G258" t="n">
-        <v>1</v>
-      </c>
-      <c r="H258" t="s">
-        <v>4</v>
-      </c>
-      <c r="I258" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="s">
-        <v>0</v>
-      </c>
-      <c r="C259" t="s">
-        <v>1</v>
-      </c>
-      <c r="D259" t="n">
-        <v>258</v>
-      </c>
-      <c r="E259" t="s">
-        <v>488</v>
-      </c>
-      <c r="F259" t="s">
-        <v>489</v>
-      </c>
-      <c r="G259" t="n">
-        <v>1</v>
-      </c>
-      <c r="H259" t="s">
-        <v>4</v>
-      </c>
-      <c r="I259" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="s">
-        <v>0</v>
-      </c>
-      <c r="C260" t="s">
-        <v>1</v>
-      </c>
-      <c r="D260" t="n">
-        <v>259</v>
-      </c>
-      <c r="E260" t="s">
-        <v>490</v>
-      </c>
-      <c r="F260" t="s">
-        <v>491</v>
-      </c>
-      <c r="G260" t="n">
-        <v>1</v>
-      </c>
-      <c r="H260" t="s">
-        <v>4</v>
-      </c>
-      <c r="I260" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="s">
-        <v>0</v>
-      </c>
-      <c r="C261" t="s">
-        <v>1</v>
-      </c>
-      <c r="D261" t="n">
-        <v>260</v>
-      </c>
-      <c r="E261" t="s">
-        <v>492</v>
-      </c>
-      <c r="F261" t="s">
-        <v>493</v>
-      </c>
-      <c r="G261" t="n">
-        <v>1</v>
-      </c>
-      <c r="H261" t="s">
-        <v>4</v>
-      </c>
-      <c r="I261" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="s">
-        <v>0</v>
-      </c>
-      <c r="C262" t="s">
-        <v>1</v>
-      </c>
-      <c r="D262" t="n">
-        <v>261</v>
-      </c>
-      <c r="E262" t="s">
-        <v>494</v>
-      </c>
-      <c r="F262" t="s">
-        <v>495</v>
-      </c>
-      <c r="G262" t="n">
-        <v>2</v>
-      </c>
-      <c r="H262" t="s">
-        <v>4</v>
-      </c>
-      <c r="I262" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="s">
-        <v>0</v>
-      </c>
-      <c r="C263" t="s">
-        <v>1</v>
-      </c>
-      <c r="D263" t="n">
-        <v>262</v>
-      </c>
-      <c r="E263" t="s">
-        <v>496</v>
-      </c>
-      <c r="F263" t="s">
-        <v>497</v>
-      </c>
-      <c r="G263" t="n">
-        <v>1</v>
-      </c>
-      <c r="H263" t="s">
-        <v>4</v>
-      </c>
-      <c r="I263" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="s">
-        <v>0</v>
-      </c>
-      <c r="C264" t="s">
-        <v>1</v>
-      </c>
-      <c r="D264" t="n">
-        <v>263</v>
-      </c>
-      <c r="E264" t="s">
-        <v>498</v>
-      </c>
-      <c r="F264" t="s">
-        <v>499</v>
-      </c>
-      <c r="G264" t="n">
-        <v>1</v>
-      </c>
-      <c r="H264" t="s">
-        <v>4</v>
-      </c>
-      <c r="I264" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="s">
-        <v>0</v>
-      </c>
-      <c r="C265" t="s">
-        <v>1</v>
-      </c>
-      <c r="D265" t="n">
-        <v>264</v>
-      </c>
-      <c r="E265" t="s">
-        <v>500</v>
-      </c>
-      <c r="F265" t="s">
-        <v>501</v>
-      </c>
-      <c r="G265" t="n">
-        <v>1</v>
-      </c>
-      <c r="H265" t="s">
-        <v>4</v>
-      </c>
-      <c r="I265" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="s">
-        <v>0</v>
-      </c>
-      <c r="C266" t="s">
-        <v>1</v>
-      </c>
-      <c r="D266" t="n">
-        <v>265</v>
-      </c>
-      <c r="E266" t="s">
-        <v>502</v>
-      </c>
-      <c r="F266" t="s">
-        <v>503</v>
-      </c>
-      <c r="G266" t="n">
-        <v>1</v>
-      </c>
-      <c r="H266" t="s">
-        <v>4</v>
-      </c>
-      <c r="I266" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="s">
-        <v>0</v>
-      </c>
-      <c r="C267" t="s">
-        <v>1</v>
-      </c>
-      <c r="D267" t="n">
-        <v>266</v>
-      </c>
-      <c r="E267" t="s">
-        <v>504</v>
-      </c>
-      <c r="F267" t="s">
-        <v>505</v>
-      </c>
-      <c r="G267" t="n">
-        <v>1</v>
-      </c>
-      <c r="H267" t="s">
-        <v>4</v>
-      </c>
-      <c r="I267" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="s">
-        <v>0</v>
-      </c>
-      <c r="C268" t="s">
-        <v>1</v>
-      </c>
-      <c r="D268" t="n">
-        <v>267</v>
-      </c>
-      <c r="E268" t="s">
-        <v>506</v>
-      </c>
-      <c r="F268" t="s">
-        <v>507</v>
-      </c>
-      <c r="G268" t="n">
-        <v>1</v>
-      </c>
-      <c r="H268" t="s">
-        <v>4</v>
-      </c>
-      <c r="I268" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="s">
-        <v>0</v>
-      </c>
-      <c r="C269" t="s">
-        <v>1</v>
-      </c>
-      <c r="D269" t="n">
-        <v>268</v>
-      </c>
-      <c r="E269" t="s">
-        <v>508</v>
-      </c>
-      <c r="F269" t="s">
-        <v>509</v>
-      </c>
-      <c r="G269" t="n">
-        <v>1</v>
-      </c>
-      <c r="H269" t="s">
-        <v>4</v>
-      </c>
-      <c r="I269" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="s">
-        <v>0</v>
-      </c>
-      <c r="C270" t="s">
-        <v>1</v>
-      </c>
-      <c r="D270" t="n">
-        <v>269</v>
-      </c>
-      <c r="E270" t="s">
-        <v>510</v>
-      </c>
-      <c r="F270" t="s">
-        <v>511</v>
-      </c>
-      <c r="G270" t="n">
-        <v>1</v>
-      </c>
-      <c r="H270" t="s">
-        <v>4</v>
-      </c>
-      <c r="I270" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="s">
-        <v>0</v>
-      </c>
-      <c r="C271" t="s">
-        <v>1</v>
-      </c>
-      <c r="D271" t="n">
-        <v>270</v>
-      </c>
-      <c r="E271" t="s">
-        <v>512</v>
-      </c>
-      <c r="F271" t="s">
-        <v>513</v>
-      </c>
-      <c r="G271" t="n">
-        <v>1</v>
-      </c>
-      <c r="H271" t="s">
-        <v>4</v>
-      </c>
-      <c r="I271" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="s">
-        <v>0</v>
-      </c>
-      <c r="C272" t="s">
-        <v>1</v>
-      </c>
-      <c r="D272" t="n">
-        <v>271</v>
-      </c>
-      <c r="E272" t="s">
-        <v>514</v>
-      </c>
-      <c r="F272" t="s">
-        <v>515</v>
-      </c>
-      <c r="G272" t="n">
-        <v>1</v>
-      </c>
-      <c r="H272" t="s">
-        <v>4</v>
-      </c>
-      <c r="I272" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="s">
-        <v>0</v>
-      </c>
-      <c r="C273" t="s">
-        <v>1</v>
-      </c>
-      <c r="D273" t="n">
-        <v>272</v>
-      </c>
-      <c r="E273" t="s">
-        <v>516</v>
-      </c>
-      <c r="F273" t="s">
-        <v>517</v>
-      </c>
-      <c r="G273" t="n">
-        <v>1</v>
-      </c>
-      <c r="H273" t="s">
-        <v>4</v>
-      </c>
-      <c r="I273" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="s">
-        <v>0</v>
-      </c>
-      <c r="C274" t="s">
-        <v>1</v>
-      </c>
-      <c r="D274" t="n">
-        <v>273</v>
-      </c>
-      <c r="E274" t="s">
-        <v>518</v>
-      </c>
-      <c r="F274" t="s">
-        <v>519</v>
-      </c>
-      <c r="G274" t="n">
-        <v>1</v>
-      </c>
-      <c r="H274" t="s">
-        <v>4</v>
-      </c>
-      <c r="I274" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="s">
-        <v>0</v>
-      </c>
-      <c r="C275" t="s">
-        <v>1</v>
-      </c>
-      <c r="D275" t="n">
-        <v>274</v>
-      </c>
-      <c r="E275" t="s">
-        <v>520</v>
-      </c>
-      <c r="F275" t="s">
-        <v>521</v>
-      </c>
-      <c r="G275" t="n">
-        <v>2</v>
-      </c>
-      <c r="H275" t="s">
-        <v>4</v>
-      </c>
-      <c r="I275" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="s">
-        <v>0</v>
-      </c>
-      <c r="C276" t="s">
-        <v>1</v>
-      </c>
-      <c r="D276" t="n">
-        <v>275</v>
-      </c>
-      <c r="E276" t="s">
-        <v>522</v>
-      </c>
-      <c r="F276" t="s">
-        <v>523</v>
-      </c>
-      <c r="G276" t="n">
-        <v>1</v>
-      </c>
-      <c r="H276" t="s">
-        <v>4</v>
-      </c>
-      <c r="I276" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="s">
-        <v>0</v>
-      </c>
-      <c r="C277" t="s">
-        <v>1</v>
-      </c>
-      <c r="D277" t="n">
-        <v>276</v>
-      </c>
-      <c r="E277" t="s">
-        <v>524</v>
-      </c>
-      <c r="F277" t="s">
-        <v>525</v>
-      </c>
-      <c r="G277" t="n">
-        <v>1</v>
-      </c>
-      <c r="H277" t="s">
-        <v>4</v>
-      </c>
-      <c r="I277" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="s">
-        <v>0</v>
-      </c>
-      <c r="C278" t="s">
-        <v>1</v>
-      </c>
-      <c r="D278" t="n">
-        <v>277</v>
-      </c>
-      <c r="E278" t="s">
-        <v>526</v>
-      </c>
-      <c r="F278" t="s">
-        <v>527</v>
-      </c>
-      <c r="G278" t="n">
-        <v>1</v>
-      </c>
-      <c r="H278" t="s">
-        <v>4</v>
-      </c>
-      <c r="I278" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="s">
-        <v>0</v>
-      </c>
-      <c r="C279" t="s">
-        <v>1</v>
-      </c>
-      <c r="D279" t="n">
-        <v>278</v>
-      </c>
-      <c r="E279" t="s">
-        <v>528</v>
-      </c>
-      <c r="F279" t="s">
-        <v>529</v>
-      </c>
-      <c r="G279" t="n">
-        <v>1</v>
-      </c>
-      <c r="H279" t="s">
-        <v>4</v>
-      </c>
-      <c r="I279" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="s">
-        <v>0</v>
-      </c>
-      <c r="C280" t="s">
-        <v>1</v>
-      </c>
-      <c r="D280" t="n">
-        <v>279</v>
-      </c>
-      <c r="E280" t="s">
-        <v>530</v>
-      </c>
-      <c r="F280" t="s">
-        <v>531</v>
-      </c>
-      <c r="G280" t="n">
-        <v>1</v>
-      </c>
-      <c r="H280" t="s">
-        <v>4</v>
-      </c>
-      <c r="I280" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="s">
-        <v>0</v>
-      </c>
-      <c r="C281" t="s">
-        <v>1</v>
-      </c>
-      <c r="D281" t="n">
-        <v>280</v>
-      </c>
-      <c r="E281" t="s">
-        <v>532</v>
-      </c>
-      <c r="F281" t="s">
-        <v>533</v>
-      </c>
-      <c r="G281" t="n">
-        <v>1</v>
-      </c>
-      <c r="H281" t="s">
-        <v>4</v>
-      </c>
-      <c r="I281" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="s">
-        <v>0</v>
-      </c>
-      <c r="C282" t="s">
-        <v>1</v>
-      </c>
-      <c r="D282" t="n">
-        <v>281</v>
-      </c>
-      <c r="E282" t="s">
-        <v>534</v>
-      </c>
-      <c r="F282" t="s">
-        <v>535</v>
-      </c>
-      <c r="G282" t="n">
-        <v>1</v>
-      </c>
-      <c r="H282" t="s">
-        <v>4</v>
-      </c>
-      <c r="I282" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="s">
-        <v>0</v>
-      </c>
-      <c r="C283" t="s">
-        <v>1</v>
-      </c>
-      <c r="D283" t="n">
-        <v>282</v>
-      </c>
-      <c r="E283" t="s">
-        <v>536</v>
-      </c>
-      <c r="F283" t="s">
-        <v>537</v>
-      </c>
-      <c r="G283" t="n">
-        <v>1</v>
-      </c>
-      <c r="H283" t="s">
-        <v>4</v>
-      </c>
-      <c r="I283" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="s">
-        <v>0</v>
-      </c>
-      <c r="C284" t="s">
-        <v>1</v>
-      </c>
-      <c r="D284" t="n">
-        <v>283</v>
-      </c>
-      <c r="E284" t="s">
-        <v>538</v>
-      </c>
-      <c r="F284" t="s">
-        <v>539</v>
-      </c>
-      <c r="G284" t="n">
-        <v>1</v>
-      </c>
-      <c r="H284" t="s">
-        <v>4</v>
-      </c>
-      <c r="I284" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="s">
-        <v>0</v>
-      </c>
-      <c r="C285" t="s">
-        <v>1</v>
-      </c>
-      <c r="D285" t="n">
-        <v>284</v>
-      </c>
-      <c r="E285" t="s">
-        <v>540</v>
-      </c>
-      <c r="F285" t="s">
-        <v>541</v>
-      </c>
-      <c r="G285" t="n">
-        <v>1</v>
-      </c>
-      <c r="H285" t="s">
-        <v>4</v>
-      </c>
-      <c r="I285" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="s">
-        <v>0</v>
-      </c>
-      <c r="C286" t="s">
-        <v>1</v>
-      </c>
-      <c r="D286" t="n">
-        <v>285</v>
-      </c>
-      <c r="E286" t="s">
-        <v>542</v>
-      </c>
-      <c r="F286" t="s">
-        <v>543</v>
-      </c>
-      <c r="G286" t="n">
-        <v>1</v>
-      </c>
-      <c r="H286" t="s">
-        <v>4</v>
-      </c>
-      <c r="I286" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="s">
-        <v>0</v>
-      </c>
-      <c r="C287" t="s">
-        <v>1</v>
-      </c>
-      <c r="D287" t="n">
-        <v>286</v>
-      </c>
-      <c r="E287" t="s">
-        <v>544</v>
-      </c>
-      <c r="F287" t="s">
-        <v>545</v>
-      </c>
-      <c r="G287" t="n">
-        <v>1</v>
-      </c>
-      <c r="H287" t="s">
-        <v>4</v>
-      </c>
-      <c r="I287" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="s">
-        <v>0</v>
-      </c>
-      <c r="C288" t="s">
-        <v>1</v>
-      </c>
-      <c r="D288" t="n">
-        <v>287</v>
-      </c>
-      <c r="E288" t="s">
-        <v>546</v>
-      </c>
-      <c r="F288" t="s">
-        <v>547</v>
-      </c>
-      <c r="G288" t="n">
-        <v>1</v>
-      </c>
-      <c r="H288" t="s">
-        <v>4</v>
-      </c>
-      <c r="I288" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="s">
-        <v>0</v>
-      </c>
-      <c r="C289" t="s">
-        <v>1</v>
-      </c>
-      <c r="D289" t="n">
-        <v>288</v>
-      </c>
-      <c r="E289" t="s">
-        <v>548</v>
-      </c>
-      <c r="F289" t="s">
-        <v>549</v>
-      </c>
-      <c r="G289" t="n">
-        <v>1</v>
-      </c>
-      <c r="H289" t="s">
-        <v>4</v>
-      </c>
-      <c r="I289" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="s">
-        <v>0</v>
-      </c>
-      <c r="C290" t="s">
-        <v>1</v>
-      </c>
-      <c r="D290" t="n">
-        <v>289</v>
-      </c>
-      <c r="E290" t="s">
-        <v>550</v>
-      </c>
-      <c r="F290" t="s">
-        <v>551</v>
-      </c>
-      <c r="G290" t="n">
-        <v>1</v>
-      </c>
-      <c r="H290" t="s">
-        <v>4</v>
-      </c>
-      <c r="I290" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="s">
-        <v>0</v>
-      </c>
-      <c r="C291" t="s">
-        <v>1</v>
-      </c>
-      <c r="D291" t="n">
-        <v>290</v>
-      </c>
-      <c r="E291" t="s">
-        <v>552</v>
-      </c>
-      <c r="F291" t="s">
-        <v>553</v>
-      </c>
-      <c r="G291" t="n">
-        <v>1</v>
-      </c>
-      <c r="H291" t="s">
-        <v>4</v>
-      </c>
-      <c r="I291" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="s">
-        <v>0</v>
-      </c>
-      <c r="C292" t="s">
-        <v>1</v>
-      </c>
-      <c r="D292" t="n">
-        <v>291</v>
-      </c>
-      <c r="E292" t="s">
-        <v>554</v>
-      </c>
-      <c r="F292" t="s">
-        <v>555</v>
-      </c>
-      <c r="G292" t="n">
-        <v>1</v>
-      </c>
-      <c r="H292" t="s">
-        <v>4</v>
-      </c>
-      <c r="I292" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="s">
-        <v>0</v>
-      </c>
-      <c r="C293" t="s">
-        <v>1</v>
-      </c>
-      <c r="D293" t="n">
-        <v>292</v>
-      </c>
-      <c r="E293" t="s">
-        <v>556</v>
-      </c>
-      <c r="F293" t="s">
-        <v>557</v>
-      </c>
-      <c r="G293" t="n">
-        <v>1</v>
-      </c>
-      <c r="H293" t="s">
-        <v>4</v>
-      </c>
-      <c r="I293" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="s">
-        <v>0</v>
-      </c>
-      <c r="C294" t="s">
-        <v>1</v>
-      </c>
-      <c r="D294" t="n">
-        <v>293</v>
-      </c>
-      <c r="E294" t="s">
-        <v>558</v>
-      </c>
-      <c r="F294" t="s">
-        <v>559</v>
-      </c>
-      <c r="G294" t="n">
-        <v>1</v>
-      </c>
-      <c r="H294" t="s">
-        <v>4</v>
-      </c>
-      <c r="I294" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="s">
-        <v>0</v>
-      </c>
-      <c r="C295" t="s">
-        <v>1</v>
-      </c>
-      <c r="D295" t="n">
-        <v>294</v>
-      </c>
-      <c r="E295" t="s">
-        <v>560</v>
-      </c>
-      <c r="F295" t="s">
-        <v>561</v>
-      </c>
-      <c r="G295" t="n">
-        <v>1</v>
-      </c>
-      <c r="H295" t="s">
-        <v>4</v>
-      </c>
-      <c r="I295" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C296" t="s">
-        <v>1</v>
-      </c>
-      <c r="D296" t="n">
-        <v>295</v>
-      </c>
-      <c r="E296" t="s">
-        <v>562</v>
-      </c>
-      <c r="F296" t="s">
-        <v>563</v>
-      </c>
-      <c r="G296" t="n">
-        <v>1</v>
-      </c>
-      <c r="H296" t="s">
-        <v>4</v>
-      </c>
-      <c r="I296" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="s">
-        <v>0</v>
-      </c>
-      <c r="C297" t="s">
-        <v>1</v>
-      </c>
-      <c r="D297" t="n">
-        <v>296</v>
-      </c>
-      <c r="E297" t="s">
-        <v>564</v>
-      </c>
-      <c r="F297" t="s">
-        <v>565</v>
-      </c>
-      <c r="G297" t="n">
-        <v>1</v>
-      </c>
-      <c r="H297" t="s">
-        <v>4</v>
-      </c>
-      <c r="I297" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="s">
-        <v>0</v>
-      </c>
-      <c r="C298" t="s">
-        <v>1</v>
-      </c>
-      <c r="D298" t="n">
-        <v>297</v>
-      </c>
-      <c r="E298" t="s">
-        <v>566</v>
-      </c>
-      <c r="F298" t="s">
-        <v>567</v>
-      </c>
-      <c r="G298" t="n">
-        <v>1</v>
-      </c>
-      <c r="H298" t="s">
-        <v>4</v>
-      </c>
-      <c r="I298" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="s">
-        <v>0</v>
-      </c>
-      <c r="C299" t="s">
-        <v>1</v>
-      </c>
-      <c r="D299" t="n">
-        <v>298</v>
-      </c>
-      <c r="E299" t="s">
-        <v>568</v>
-      </c>
-      <c r="F299" t="s">
-        <v>569</v>
-      </c>
-      <c r="G299" t="n">
-        <v>1</v>
-      </c>
-      <c r="H299" t="s">
-        <v>4</v>
-      </c>
-      <c r="I299" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="s">
-        <v>0</v>
-      </c>
-      <c r="C300" t="s">
-        <v>1</v>
-      </c>
-      <c r="D300" t="n">
-        <v>299</v>
-      </c>
-      <c r="E300" t="s">
-        <v>570</v>
-      </c>
-      <c r="F300" t="s">
-        <v>571</v>
-      </c>
-      <c r="G300" t="n">
-        <v>1</v>
-      </c>
-      <c r="H300" t="s">
-        <v>4</v>
-      </c>
-      <c r="I300" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="s">
-        <v>0</v>
-      </c>
-      <c r="C301" t="s">
-        <v>1</v>
-      </c>
-      <c r="D301" t="n">
-        <v>300</v>
-      </c>
-      <c r="E301" t="s">
-        <v>572</v>
-      </c>
-      <c r="F301" t="s">
-        <v>573</v>
-      </c>
-      <c r="G301" t="n">
-        <v>1</v>
-      </c>
-      <c r="H301" t="s">
-        <v>4</v>
-      </c>
-      <c r="I301" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="s">
-        <v>0</v>
-      </c>
-      <c r="C302" t="s">
-        <v>1</v>
-      </c>
-      <c r="D302" t="n">
-        <v>301</v>
-      </c>
-      <c r="E302" t="s">
-        <v>574</v>
-      </c>
-      <c r="F302" t="s">
-        <v>575</v>
-      </c>
-      <c r="G302" t="n">
-        <v>1</v>
-      </c>
-      <c r="H302" t="s">
-        <v>4</v>
-      </c>
-      <c r="I302" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="s">
-        <v>0</v>
-      </c>
-      <c r="C303" t="s">
-        <v>1</v>
-      </c>
-      <c r="D303" t="n">
-        <v>302</v>
-      </c>
-      <c r="E303" t="s">
-        <v>576</v>
-      </c>
-      <c r="F303" t="s">
-        <v>577</v>
-      </c>
-      <c r="G303" t="n">
-        <v>1</v>
-      </c>
-      <c r="H303" t="s">
-        <v>4</v>
-      </c>
-      <c r="I303" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="s">
-        <v>0</v>
-      </c>
-      <c r="C304" t="s">
-        <v>1</v>
-      </c>
-      <c r="D304" t="n">
-        <v>303</v>
-      </c>
-      <c r="E304" t="s">
-        <v>578</v>
-      </c>
-      <c r="F304" t="s">
-        <v>579</v>
-      </c>
-      <c r="G304" t="n">
-        <v>1</v>
-      </c>
-      <c r="H304" t="s">
-        <v>4</v>
-      </c>
-      <c r="I304" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="s">
-        <v>0</v>
-      </c>
-      <c r="C305" t="s">
-        <v>1</v>
-      </c>
-      <c r="D305" t="n">
-        <v>304</v>
-      </c>
-      <c r="E305" t="s">
-        <v>580</v>
-      </c>
-      <c r="F305" t="s">
-        <v>581</v>
-      </c>
-      <c r="G305" t="n">
-        <v>1</v>
-      </c>
-      <c r="H305" t="s">
-        <v>4</v>
-      </c>
-      <c r="I305" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="s">
-        <v>0</v>
-      </c>
-      <c r="C306" t="s">
-        <v>1</v>
-      </c>
-      <c r="D306" t="n">
-        <v>305</v>
-      </c>
-      <c r="E306" t="s">
-        <v>582</v>
-      </c>
-      <c r="F306" t="s">
-        <v>583</v>
-      </c>
-      <c r="G306" t="n">
-        <v>1</v>
-      </c>
-      <c r="H306" t="s">
-        <v>4</v>
-      </c>
-      <c r="I306" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="s">
-        <v>0</v>
-      </c>
-      <c r="C307" t="s">
-        <v>1</v>
-      </c>
-      <c r="D307" t="n">
-        <v>306</v>
-      </c>
-      <c r="E307" t="s">
-        <v>584</v>
-      </c>
-      <c r="F307" t="s">
-        <v>585</v>
-      </c>
-      <c r="G307" t="n">
-        <v>1</v>
-      </c>
-      <c r="H307" t="s">
-        <v>4</v>
-      </c>
-      <c r="I307" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="s">
-        <v>0</v>
-      </c>
-      <c r="C308" t="s">
-        <v>1</v>
-      </c>
-      <c r="D308" t="n">
-        <v>307</v>
-      </c>
-      <c r="E308" t="s">
-        <v>586</v>
-      </c>
-      <c r="F308" t="s">
-        <v>587</v>
-      </c>
-      <c r="G308" t="n">
-        <v>1</v>
-      </c>
-      <c r="H308" t="s">
-        <v>4</v>
-      </c>
-      <c r="I308" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="s">
-        <v>0</v>
-      </c>
-      <c r="C309" t="s">
-        <v>1</v>
-      </c>
-      <c r="D309" t="n">
-        <v>308</v>
-      </c>
-      <c r="E309" t="s">
-        <v>588</v>
-      </c>
-      <c r="F309" t="s">
-        <v>589</v>
-      </c>
-      <c r="G309" t="n">
-        <v>1</v>
-      </c>
-      <c r="H309" t="s">
-        <v>4</v>
-      </c>
-      <c r="I309" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="s">
-        <v>0</v>
-      </c>
-      <c r="C310" t="s">
-        <v>1</v>
-      </c>
-      <c r="D310" t="n">
-        <v>309</v>
-      </c>
-      <c r="E310" t="s">
-        <v>590</v>
-      </c>
-      <c r="F310" t="s">
-        <v>591</v>
-      </c>
-      <c r="G310" t="n">
-        <v>1</v>
-      </c>
-      <c r="H310" t="s">
-        <v>4</v>
-      </c>
-      <c r="I310" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="s">
-        <v>0</v>
-      </c>
-      <c r="C311" t="s">
-        <v>1</v>
-      </c>
-      <c r="D311" t="n">
-        <v>310</v>
-      </c>
-      <c r="E311" t="s">
-        <v>592</v>
-      </c>
-      <c r="F311" t="s">
-        <v>593</v>
-      </c>
-      <c r="G311" t="n">
-        <v>1</v>
-      </c>
-      <c r="H311" t="s">
-        <v>4</v>
-      </c>
-      <c r="I311" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="s">
-        <v>0</v>
-      </c>
-      <c r="C312" t="s">
-        <v>1</v>
-      </c>
-      <c r="D312" t="n">
-        <v>311</v>
-      </c>
-      <c r="E312" t="s">
-        <v>594</v>
-      </c>
-      <c r="F312" t="s">
-        <v>595</v>
-      </c>
-      <c r="G312" t="n">
-        <v>1</v>
-      </c>
-      <c r="H312" t="s">
-        <v>4</v>
-      </c>
-      <c r="I312" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="s">
-        <v>0</v>
-      </c>
-      <c r="C313" t="s">
-        <v>1</v>
-      </c>
-      <c r="D313" t="n">
-        <v>312</v>
-      </c>
-      <c r="E313" t="s">
-        <v>596</v>
-      </c>
-      <c r="F313" t="s">
-        <v>597</v>
-      </c>
-      <c r="G313" t="n">
-        <v>1</v>
-      </c>
-      <c r="H313" t="s">
-        <v>4</v>
-      </c>
-      <c r="I313" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="s">
-        <v>0</v>
-      </c>
-      <c r="C314" t="s">
-        <v>1</v>
-      </c>
-      <c r="D314" t="n">
-        <v>313</v>
-      </c>
-      <c r="E314" t="s">
-        <v>598</v>
-      </c>
-      <c r="F314" t="s">
-        <v>599</v>
-      </c>
-      <c r="G314" t="n">
-        <v>1</v>
-      </c>
-      <c r="H314" t="s">
-        <v>4</v>
-      </c>
-      <c r="I314" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="s">
-        <v>0</v>
-      </c>
-      <c r="C315" t="s">
-        <v>1</v>
-      </c>
-      <c r="D315" t="n">
-        <v>314</v>
-      </c>
-      <c r="E315" t="s">
-        <v>600</v>
-      </c>
-      <c r="F315" t="s">
-        <v>601</v>
-      </c>
-      <c r="G315" t="n">
-        <v>1</v>
-      </c>
-      <c r="H315" t="s">
-        <v>4</v>
-      </c>
-      <c r="I315" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="s">
-        <v>0</v>
-      </c>
-      <c r="C316" t="s">
-        <v>1</v>
-      </c>
-      <c r="D316" t="n">
-        <v>315</v>
-      </c>
-      <c r="E316" t="s">
-        <v>602</v>
-      </c>
-      <c r="F316" t="s">
-        <v>603</v>
-      </c>
-      <c r="G316" t="n">
-        <v>1</v>
-      </c>
-      <c r="H316" t="s">
-        <v>4</v>
-      </c>
-      <c r="I316" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="s">
-        <v>0</v>
-      </c>
-      <c r="C317" t="s">
-        <v>1</v>
-      </c>
-      <c r="D317" t="n">
-        <v>316</v>
-      </c>
-      <c r="E317" t="s">
-        <v>604</v>
-      </c>
-      <c r="F317" t="s">
-        <v>605</v>
-      </c>
-      <c r="G317" t="n">
-        <v>1</v>
-      </c>
-      <c r="H317" t="s">
-        <v>4</v>
-      </c>
-      <c r="I317" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="s">
-        <v>0</v>
-      </c>
-      <c r="C318" t="s">
-        <v>1</v>
-      </c>
-      <c r="D318" t="n">
-        <v>317</v>
-      </c>
-      <c r="E318" t="s">
-        <v>606</v>
-      </c>
-      <c r="F318" t="s">
-        <v>607</v>
-      </c>
-      <c r="G318" t="n">
-        <v>1</v>
-      </c>
-      <c r="H318" t="s">
-        <v>4</v>
-      </c>
-      <c r="I318" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="s">
-        <v>0</v>
-      </c>
-      <c r="C319" t="s">
-        <v>1</v>
-      </c>
-      <c r="D319" t="n">
-        <v>318</v>
-      </c>
-      <c r="E319" t="s">
-        <v>608</v>
-      </c>
-      <c r="F319" t="s">
-        <v>609</v>
-      </c>
-      <c r="G319" t="n">
-        <v>1</v>
-      </c>
-      <c r="H319" t="s">
-        <v>4</v>
-      </c>
-      <c r="I319" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="s">
-        <v>0</v>
-      </c>
-      <c r="C320" t="s">
-        <v>1</v>
-      </c>
-      <c r="D320" t="n">
-        <v>319</v>
-      </c>
-      <c r="E320" t="s">
-        <v>610</v>
-      </c>
-      <c r="F320" t="s">
-        <v>611</v>
-      </c>
-      <c r="G320" t="n">
-        <v>1</v>
-      </c>
-      <c r="H320" t="s">
-        <v>4</v>
-      </c>
-      <c r="I320" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="s">
-        <v>0</v>
-      </c>
-      <c r="C321" t="s">
-        <v>1</v>
-      </c>
-      <c r="D321" t="n">
-        <v>320</v>
-      </c>
-      <c r="E321" t="s">
-        <v>612</v>
-      </c>
-      <c r="F321" t="s">
-        <v>613</v>
-      </c>
-      <c r="G321" t="n">
-        <v>1</v>
-      </c>
-      <c r="H321" t="s">
-        <v>4</v>
-      </c>
-      <c r="I321" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="s">
-        <v>0</v>
-      </c>
-      <c r="C322" t="s">
-        <v>1</v>
-      </c>
-      <c r="D322" t="n">
-        <v>321</v>
-      </c>
-      <c r="E322" t="s">
-        <v>614</v>
-      </c>
-      <c r="F322" t="s">
-        <v>615</v>
-      </c>
-      <c r="G322" t="n">
-        <v>1</v>
-      </c>
-      <c r="H322" t="s">
-        <v>4</v>
-      </c>
-      <c r="I322" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="s">
-        <v>0</v>
-      </c>
-      <c r="C323" t="s">
-        <v>1</v>
-      </c>
-      <c r="D323" t="n">
-        <v>322</v>
-      </c>
-      <c r="E323" t="s">
-        <v>616</v>
-      </c>
-      <c r="F323" t="s">
-        <v>617</v>
-      </c>
-      <c r="G323" t="n">
-        <v>1</v>
-      </c>
-      <c r="H323" t="s">
-        <v>4</v>
-      </c>
-      <c r="I323" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="s">
-        <v>0</v>
-      </c>
-      <c r="C324" t="s">
-        <v>1</v>
-      </c>
-      <c r="D324" t="n">
-        <v>323</v>
-      </c>
-      <c r="E324" t="s">
-        <v>618</v>
-      </c>
-      <c r="F324" t="s">
-        <v>619</v>
-      </c>
-      <c r="G324" t="n">
-        <v>1</v>
-      </c>
-      <c r="H324" t="s">
-        <v>4</v>
-      </c>
-      <c r="I324" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="s">
-        <v>0</v>
-      </c>
-      <c r="C325" t="s">
-        <v>1</v>
-      </c>
-      <c r="D325" t="n">
-        <v>324</v>
-      </c>
-      <c r="E325" t="s">
-        <v>620</v>
-      </c>
-      <c r="F325" t="s">
-        <v>621</v>
-      </c>
-      <c r="G325" t="n">
-        <v>1</v>
-      </c>
-      <c r="H325" t="s">
-        <v>4</v>
-      </c>
-      <c r="I325" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="s">
-        <v>0</v>
-      </c>
-      <c r="C326" t="s">
-        <v>1</v>
-      </c>
-      <c r="D326" t="n">
-        <v>325</v>
-      </c>
-      <c r="E326" t="s">
-        <v>622</v>
-      </c>
-      <c r="F326" t="s">
-        <v>623</v>
-      </c>
-      <c r="G326" t="n">
-        <v>1</v>
-      </c>
-      <c r="H326" t="s">
-        <v>4</v>
-      </c>
-      <c r="I326" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="s">
-        <v>0</v>
-      </c>
-      <c r="C327" t="s">
-        <v>1</v>
-      </c>
-      <c r="D327" t="n">
-        <v>326</v>
-      </c>
-      <c r="E327" t="s">
-        <v>624</v>
-      </c>
-      <c r="F327" t="s">
-        <v>625</v>
-      </c>
-      <c r="G327" t="n">
-        <v>1</v>
-      </c>
-      <c r="H327" t="s">
-        <v>4</v>
-      </c>
-      <c r="I327" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="s">
-        <v>0</v>
-      </c>
-      <c r="C328" t="s">
-        <v>1</v>
-      </c>
-      <c r="D328" t="n">
-        <v>327</v>
-      </c>
-      <c r="E328" t="s">
-        <v>626</v>
-      </c>
-      <c r="F328" t="s">
-        <v>627</v>
-      </c>
-      <c r="G328" t="n">
-        <v>1</v>
-      </c>
-      <c r="H328" t="s">
-        <v>4</v>
-      </c>
-      <c r="I328" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="s">
-        <v>0</v>
-      </c>
-      <c r="C329" t="s">
-        <v>1</v>
-      </c>
-      <c r="D329" t="n">
-        <v>328</v>
-      </c>
-      <c r="E329" t="s">
-        <v>628</v>
-      </c>
-      <c r="F329" t="s">
-        <v>629</v>
-      </c>
-      <c r="G329" t="n">
-        <v>1</v>
-      </c>
-      <c r="H329" t="s">
-        <v>4</v>
-      </c>
-      <c r="I329" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="s">
-        <v>0</v>
-      </c>
-      <c r="C330" t="s">
-        <v>1</v>
-      </c>
-      <c r="D330" t="n">
-        <v>329</v>
-      </c>
-      <c r="E330" t="s">
-        <v>630</v>
-      </c>
-      <c r="F330" t="s">
-        <v>631</v>
-      </c>
-      <c r="G330" t="n">
-        <v>1</v>
-      </c>
-      <c r="H330" t="s">
-        <v>4</v>
-      </c>
-      <c r="I330" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="s">
-        <v>0</v>
-      </c>
-      <c r="C331" t="s">
-        <v>1</v>
-      </c>
-      <c r="D331" t="n">
-        <v>330</v>
-      </c>
-      <c r="E331" t="s">
-        <v>632</v>
-      </c>
-      <c r="F331" t="s">
-        <v>633</v>
-      </c>
-      <c r="G331" t="n">
-        <v>1</v>
-      </c>
-      <c r="H331" t="s">
-        <v>4</v>
-      </c>
-      <c r="I331" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="s">
-        <v>0</v>
-      </c>
-      <c r="C332" t="s">
-        <v>1</v>
-      </c>
-      <c r="D332" t="n">
-        <v>331</v>
-      </c>
-      <c r="E332" t="s">
-        <v>634</v>
-      </c>
-      <c r="F332" t="s">
-        <v>635</v>
-      </c>
-      <c r="G332" t="n">
-        <v>1</v>
-      </c>
-      <c r="H332" t="s">
-        <v>4</v>
-      </c>
-      <c r="I332" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="s">
-        <v>0</v>
-      </c>
-      <c r="C333" t="s">
-        <v>1</v>
-      </c>
-      <c r="D333" t="n">
-        <v>332</v>
-      </c>
-      <c r="E333" t="s">
-        <v>636</v>
-      </c>
-      <c r="F333" t="s">
-        <v>637</v>
-      </c>
-      <c r="G333" t="n">
-        <v>1</v>
-      </c>
-      <c r="H333" t="s">
-        <v>4</v>
-      </c>
-      <c r="I333" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="s">
-        <v>0</v>
-      </c>
-      <c r="C334" t="s">
-        <v>1</v>
-      </c>
-      <c r="D334" t="n">
-        <v>333</v>
-      </c>
-      <c r="E334" t="s">
-        <v>638</v>
-      </c>
-      <c r="F334" t="s">
-        <v>639</v>
-      </c>
-      <c r="G334" t="n">
-        <v>1</v>
-      </c>
-      <c r="H334" t="s">
-        <v>4</v>
-      </c>
-      <c r="I334" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="s">
-        <v>0</v>
-      </c>
-      <c r="C335" t="s">
-        <v>1</v>
-      </c>
-      <c r="D335" t="n">
-        <v>334</v>
-      </c>
-      <c r="E335" t="s">
-        <v>640</v>
-      </c>
-      <c r="F335" t="s">
-        <v>641</v>
-      </c>
-      <c r="G335" t="n">
-        <v>1</v>
-      </c>
-      <c r="H335" t="s">
-        <v>4</v>
-      </c>
-      <c r="I335" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/政策_政策_管理_intext.xlsx
+++ b/xlsx/政策_政策_管理_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="479">
   <si>
     <t>管理</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>開會</t>
+    <t>开会</t>
   </si>
   <si>
     <t>政策_政策_管理</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%96%B0</t>
   </si>
   <si>
-    <t>創新</t>
+    <t>创新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>組織</t>
+    <t>组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%BA%90</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>中產階級</t>
+    <t>中产阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E9%98%B6%E7%BA%A7</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>商學院</t>
+    <t>商学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E4%BA%BA</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%B0%91%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>代議民主制</t>
+    <t>代议民主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B0%E7%9B%B8</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%BE%8E%E4%BA%BA</t>
   </si>
   <si>
-    <t>蘇美人</t>
+    <t>苏美人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%95%B8%E5%AD%97</t>
   </si>
   <si>
-    <t>阿拉伯數字</t>
+    <t>阿拉伯数字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E5%BC%8F%E8%AE%B0%E5%B8%90%E6%B3%95</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E8%A5%BF%E4%BA%94%E7%B6%93</t>
   </si>
   <si>
-    <t>摩西五經</t>
+    <t>摩西五经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E6%9C%AC%E6%9C%83%E8%A8%88</t>
   </si>
   <si>
-    <t>成本會計</t>
+    <t>成本会计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AF%8C%E8%AE%BA</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E4%BF%9D%E8%AD%89</t>
   </si>
   <si>
-    <t>品質保證</t>
+    <t>品质保证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%95%86%E5%AD%A6%E9%99%A2</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%90%E5%88%B6%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>限制理論</t>
+    <t>限制理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A0%87%E7%AE%A1%E7%90%86</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E6%A8%99%E6%BA%96%E5%B7%AE</t>
   </si>
   <si>
-    <t>六標準差</t>
+    <t>六标准差</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%8A%80%E6%9C%AF</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>行銷管理</t>
+    <t>行销管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%89%9F%E5%88%A9%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>非牟利機構</t>
+    <t>非牟利机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%AE%A1%E7%90%86</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>人格障礙</t>
+    <t>人格障碍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%89%A7%E8%A1%8C%E8%91%A3%E4%BA%8B</t>
@@ -671,19 +671,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>彼得原則</t>
+    <t>彼得原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E8%AE%8A%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>權變理論</t>
+    <t>权变理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/X%E5%92%8CY%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>X和Y理論</t>
+    <t>X和Y理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E6%96%B9%E6%B3%95</t>
@@ -731,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BF%AE%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>維修管理</t>
+    <t>维修管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A8%E9%87%8F%E7%AE%A1%E7%90%86</t>
@@ -755,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>知識管理</t>
+    <t>知识管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E7%AE%A1%E7%90%86</t>
@@ -833,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E6%A1%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>專案管理</t>
+    <t>专案管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E9%97%B4%E7%AE%A1%E7%90%86</t>
@@ -869,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E8%A8%88%E9%87%8F%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學計量學</t>
+    <t>科学计量学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E6%9D%A5%E5%AD%A6</t>
@@ -977,9 +977,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共行政學</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Capability_management</t>
   </si>
   <si>
@@ -989,7 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E8%AE%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>應變管理</t>
+    <t>应变管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Communications_management</t>
@@ -1007,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BE%E6%95%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>績效管理</t>
+    <t>绩效管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Systems_management</t>
@@ -1037,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E5%BB%BA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>營建管理</t>
+    <t>营建管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Line_management</t>
@@ -1067,7 +1064,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>品質管理</t>
+    <t>品质管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sales_management</t>
@@ -1139,13 +1136,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E6%A9%9F%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>危機管理</t>
+    <t>危机管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>壓力管理</t>
+    <t>压力管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Resource_management</t>
@@ -1157,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E7%AE%A1%E7%90%86</t>
@@ -1169,15 +1166,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>資訊科技管理</t>
+    <t>资讯科技管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>知识管理</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%9C%B0%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
@@ -1211,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%AE%B6%E6%B4%BE%E9%81%A3</t>
   </si>
   <si>
-    <t>專家派遣</t>
+    <t>专家派遣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E9%83%A8</t>
@@ -1223,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9A%8E%E7%AE%A1%E7%90%86%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>高階管理人員</t>
+    <t>高阶管理人员</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adhocracy</t>
@@ -1259,25 +1253,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>目標管理</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E9%A2%A8%E6%A0%BC</t>
   </si>
   <si>
-    <t>管理風格</t>
+    <t>管理风格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>宏觀管理</t>
+    <t>宏观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>微觀管理</t>
+    <t>微观管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Team_building</t>
@@ -1295,7 +1286,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E6%96%B7</t>
   </si>
   <si>
-    <t>決斷</t>
+    <t>决断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B3%E7%AD%96</t>
@@ -1313,7 +1304,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
   </si>
   <si>
-    <t>領導力</t>
+    <t>领导力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E9%9B%85%E8%83%A1%C2%B7%E9%AB%98%E5%BE%B7%E6%8B%89%E7%89%B9</t>
@@ -1331,21 +1322,15 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
-    <t>商学院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E5%AD%B8%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理學學士</t>
+    <t>工商管理学学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理碩士</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/PhD_in_management</t>
   </si>
   <si>
@@ -1385,13 +1370,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>管理主義</t>
+    <t>管理主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E7%99%BC%E5%B1%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>組織發展理論</t>
+    <t>组织发展理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C</t>
@@ -6477,7 +6462,7 @@
         <v>319</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>178</v>
       </c>
       <c r="G161" t="n">
         <v>8</v>
@@ -6532,10 +6517,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>320</v>
+      </c>
+      <c r="F163" t="s">
         <v>321</v>
-      </c>
-      <c r="F163" t="s">
-        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6561,10 +6546,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>322</v>
+      </c>
+      <c r="F164" t="s">
         <v>323</v>
-      </c>
-      <c r="F164" t="s">
-        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6590,10 +6575,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>324</v>
+      </c>
+      <c r="F165" t="s">
         <v>325</v>
-      </c>
-      <c r="F165" t="s">
-        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6648,10 +6633,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>326</v>
+      </c>
+      <c r="F167" t="s">
         <v>327</v>
-      </c>
-      <c r="F167" t="s">
-        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6677,10 +6662,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>328</v>
+      </c>
+      <c r="F168" t="s">
         <v>329</v>
-      </c>
-      <c r="F168" t="s">
-        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6735,10 +6720,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>330</v>
+      </c>
+      <c r="F170" t="s">
         <v>331</v>
-      </c>
-      <c r="F170" t="s">
-        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6793,10 +6778,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>332</v>
+      </c>
+      <c r="F172" t="s">
         <v>333</v>
-      </c>
-      <c r="F172" t="s">
-        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6822,10 +6807,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>334</v>
+      </c>
+      <c r="F173" t="s">
         <v>335</v>
-      </c>
-      <c r="F173" t="s">
-        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6880,10 +6865,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>336</v>
+      </c>
+      <c r="F175" t="s">
         <v>337</v>
-      </c>
-      <c r="F175" t="s">
-        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6938,10 +6923,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>338</v>
+      </c>
+      <c r="F177" t="s">
         <v>339</v>
-      </c>
-      <c r="F177" t="s">
-        <v>340</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6967,10 +6952,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>340</v>
+      </c>
+      <c r="F178" t="s">
         <v>341</v>
-      </c>
-      <c r="F178" t="s">
-        <v>342</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7025,10 +7010,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>342</v>
+      </c>
+      <c r="F180" t="s">
         <v>343</v>
-      </c>
-      <c r="F180" t="s">
-        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7054,10 +7039,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>344</v>
+      </c>
+      <c r="F181" t="s">
         <v>345</v>
-      </c>
-      <c r="F181" t="s">
-        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7083,10 +7068,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>346</v>
+      </c>
+      <c r="F182" t="s">
         <v>347</v>
-      </c>
-      <c r="F182" t="s">
-        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7112,10 +7097,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>348</v>
+      </c>
+      <c r="F183" t="s">
         <v>349</v>
-      </c>
-      <c r="F183" t="s">
-        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7141,10 +7126,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>350</v>
+      </c>
+      <c r="F184" t="s">
         <v>351</v>
-      </c>
-      <c r="F184" t="s">
-        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7170,10 +7155,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>352</v>
+      </c>
+      <c r="F185" t="s">
         <v>353</v>
-      </c>
-      <c r="F185" t="s">
-        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7199,10 +7184,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>354</v>
+      </c>
+      <c r="F186" t="s">
         <v>355</v>
-      </c>
-      <c r="F186" t="s">
-        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7228,10 +7213,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>356</v>
+      </c>
+      <c r="F187" t="s">
         <v>357</v>
-      </c>
-      <c r="F187" t="s">
-        <v>358</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7257,10 +7242,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>358</v>
+      </c>
+      <c r="F188" t="s">
         <v>359</v>
-      </c>
-      <c r="F188" t="s">
-        <v>360</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7286,10 +7271,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>360</v>
+      </c>
+      <c r="F189" t="s">
         <v>361</v>
-      </c>
-      <c r="F189" t="s">
-        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7315,10 +7300,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>362</v>
+      </c>
+      <c r="F190" t="s">
         <v>363</v>
-      </c>
-      <c r="F190" t="s">
-        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>5</v>
@@ -7344,10 +7329,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>364</v>
+      </c>
+      <c r="F191" t="s">
         <v>365</v>
-      </c>
-      <c r="F191" t="s">
-        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7373,10 +7358,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>366</v>
+      </c>
+      <c r="F192" t="s">
         <v>367</v>
-      </c>
-      <c r="F192" t="s">
-        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7402,10 +7387,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>368</v>
+      </c>
+      <c r="F193" t="s">
         <v>369</v>
-      </c>
-      <c r="F193" t="s">
-        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7431,10 +7416,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>370</v>
+      </c>
+      <c r="F194" t="s">
         <v>371</v>
-      </c>
-      <c r="F194" t="s">
-        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7460,10 +7445,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>372</v>
+      </c>
+      <c r="F195" t="s">
         <v>373</v>
-      </c>
-      <c r="F195" t="s">
-        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7489,10 +7474,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>374</v>
+      </c>
+      <c r="F196" t="s">
         <v>375</v>
-      </c>
-      <c r="F196" t="s">
-        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7518,10 +7503,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>376</v>
+      </c>
+      <c r="F197" t="s">
         <v>377</v>
-      </c>
-      <c r="F197" t="s">
-        <v>378</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7547,10 +7532,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>378</v>
+      </c>
+      <c r="F198" t="s">
         <v>379</v>
-      </c>
-      <c r="F198" t="s">
-        <v>380</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7605,10 +7590,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>380</v>
+      </c>
+      <c r="F200" t="s">
         <v>381</v>
-      </c>
-      <c r="F200" t="s">
-        <v>382</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -7634,10 +7619,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>382</v>
+      </c>
+      <c r="F201" t="s">
         <v>383</v>
-      </c>
-      <c r="F201" t="s">
-        <v>384</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7663,10 +7648,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F202" t="s">
-        <v>386</v>
+        <v>246</v>
       </c>
       <c r="G202" t="n">
         <v>3</v>
@@ -7692,10 +7677,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F203" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7721,10 +7706,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F204" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7750,10 +7735,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7779,10 +7764,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F206" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7808,10 +7793,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F207" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7866,10 +7851,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F209" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7895,10 +7880,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F210" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7924,10 +7909,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F211" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G211" t="n">
         <v>4</v>
@@ -7953,10 +7938,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F212" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7982,10 +7967,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8011,10 +7996,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F214" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8040,10 +8025,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F215" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8069,10 +8054,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F216" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8098,10 +8083,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F217" t="s">
-        <v>414</v>
+        <v>156</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -8127,10 +8112,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8156,10 +8141,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F219" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8185,10 +8170,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F220" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8272,10 +8257,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F223" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8301,10 +8286,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F224" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8330,10 +8315,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F225" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8359,10 +8344,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F226" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G226" t="n">
         <v>13</v>
@@ -8388,10 +8373,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F227" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8417,10 +8402,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F228" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8446,10 +8431,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F229" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8475,10 +8460,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F230" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8504,10 +8489,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F231" t="s">
-        <v>438</v>
+        <v>56</v>
       </c>
       <c r="G231" t="n">
         <v>3</v>
@@ -8533,10 +8518,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F232" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8562,10 +8547,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F233" t="s">
-        <v>442</v>
+        <v>138</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8591,10 +8576,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F234" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8620,10 +8605,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F235" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8649,10 +8634,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F236" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8678,10 +8663,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F237" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8707,10 +8692,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F238" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8765,10 +8750,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F240" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8823,10 +8808,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F242" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8852,10 +8837,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F243" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8881,10 +8866,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F244" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8910,10 +8895,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F245" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -8939,10 +8924,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F246" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -8968,10 +8953,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F247" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -8997,10 +8982,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F248" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9026,10 +9011,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F249" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9055,10 +9040,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F250" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9084,10 +9069,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F251" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9113,10 +9098,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F252" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9142,10 +9127,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F253" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9171,10 +9156,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F254" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9200,10 +9185,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F255" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G255" t="n">
         <v>3</v>
@@ -9229,10 +9214,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F256" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
